--- a/AULA 01/BASE DE DADOS.xlsx
+++ b/AULA 01/BASE DE DADOS.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\italo\Desktop\PBI + Excel\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://asavbrm-my.sharepoint.com/personal/fcardosoo_edu_unisinos_br/Documents/TI/Git/Simplifica-Treinamentos-Excel-Power-BI/AULA 01/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{735EDCB2-EB8A-4762-9BA3-762CEE6460A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="13_ncr:1_{735EDCB2-EB8A-4762-9BA3-762CEE6460A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{29859707-7E5F-4573-9303-0711E21426B4}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{6B4BC58C-BB17-441D-8DA7-B71E92E3E950}"/>
+    <workbookView xWindow="16905" yWindow="-16200" windowWidth="21495" windowHeight="15630" xr2:uid="{6B4BC58C-BB17-441D-8DA7-B71E92E3E950}"/>
   </bookViews>
   <sheets>
     <sheet name="Médicos" sheetId="1" r:id="rId1"/>
@@ -28,12 +28,9 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
         <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -178,9 +175,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="46" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -495,20 +493,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{280F6DF4-B826-4BC0-9F0E-448C7C367043}">
-  <dimension ref="B2:D8"/>
+  <dimension ref="B2:F8"/>
   <sheetViews>
-    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="9.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.5546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>0</v>
       </c>
@@ -519,7 +517,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B3">
         <v>1</v>
       </c>
@@ -529,8 +527,11 @@
       <c r="D3" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="4" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="F3" s="2">
+        <v>2.2201388888888887</v>
+      </c>
+    </row>
+    <row r="4" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B4">
         <v>2</v>
       </c>
@@ -541,7 +542,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="5" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B5">
         <v>3</v>
       </c>
@@ -552,7 +553,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="6" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B6">
         <v>4</v>
       </c>
@@ -563,7 +564,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="7" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B7">
         <v>5</v>
       </c>
@@ -574,7 +575,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="8" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B8">
         <v>6</v>
       </c>
@@ -599,13 +600,13 @@
       <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="14.77734375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="25.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="25.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>19</v>
       </c>
@@ -619,7 +620,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B3">
         <v>1</v>
       </c>
@@ -633,7 +634,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="4" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B4">
         <v>2</v>
       </c>
@@ -647,7 +648,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="5" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B5">
         <v>3</v>
       </c>
@@ -661,7 +662,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="6" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B6">
         <v>4</v>
       </c>
@@ -675,7 +676,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="7" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B7">
         <v>5</v>
       </c>
@@ -689,7 +690,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="8" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B8">
         <v>6</v>
       </c>
@@ -703,7 +704,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="9" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B9">
         <v>7</v>
       </c>
@@ -717,7 +718,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="10" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B10">
         <v>8</v>
       </c>
@@ -731,7 +732,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="11" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B11">
         <v>9</v>
       </c>
@@ -745,7 +746,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="12" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B12">
         <v>10</v>
       </c>
@@ -759,7 +760,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="13" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B13">
         <v>11</v>
       </c>
@@ -773,7 +774,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="14" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B14">
         <v>12</v>
       </c>
@@ -787,7 +788,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="15" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B15">
         <v>13</v>
       </c>
@@ -801,7 +802,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="16" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B16">
         <v>14</v>
       </c>
@@ -824,19 +825,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D5C2A7CE-8963-4711-AEAC-20578B4669CA}">
   <dimension ref="B2:E820"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A782" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="E789" sqref="E789"/>
+    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="11" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.77734375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>18</v>
       </c>
@@ -850,7 +851,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="3" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B3" s="1">
         <v>44347</v>
       </c>
@@ -864,7 +865,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="4" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B4" s="1">
         <v>44279</v>
       </c>
@@ -878,7 +879,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="5" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B5" s="1">
         <v>44343</v>
       </c>
@@ -892,7 +893,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="6" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B6" s="1">
         <v>43885</v>
       </c>
@@ -906,7 +907,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="7" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B7" s="1">
         <v>44478</v>
       </c>
@@ -920,7 +921,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="8" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B8" s="1">
         <v>44195</v>
       </c>
@@ -934,7 +935,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="9" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B9" s="1">
         <v>44268</v>
       </c>
@@ -948,7 +949,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B10" s="1">
         <v>44076</v>
       </c>
@@ -962,7 +963,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="11" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B11" s="1">
         <v>44538</v>
       </c>
@@ -976,7 +977,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B12" s="1">
         <v>44062</v>
       </c>
@@ -990,7 +991,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="13" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B13" s="1">
         <v>44268</v>
       </c>
@@ -1004,7 +1005,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="14" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B14" s="1">
         <v>44463</v>
       </c>
@@ -1018,7 +1019,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="15" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B15" s="1">
         <v>44279</v>
       </c>
@@ -1032,7 +1033,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="16" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B16" s="1">
         <v>43938</v>
       </c>
@@ -1046,7 +1047,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="17" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B17" s="1">
         <v>43905</v>
       </c>
@@ -1060,7 +1061,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="18" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B18" s="1">
         <v>44425</v>
       </c>
@@ -1074,7 +1075,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="19" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B19" s="1">
         <v>43848</v>
       </c>
@@ -1088,7 +1089,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="20" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B20" s="1">
         <v>44177</v>
       </c>
@@ -1102,7 +1103,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="21" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B21" s="1">
         <v>44383</v>
       </c>
@@ -1116,7 +1117,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="22" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B22" s="1">
         <v>43895</v>
       </c>
@@ -1130,7 +1131,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="23" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B23" s="1">
         <v>43846</v>
       </c>
@@ -1144,7 +1145,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="24" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B24" s="1">
         <v>43999</v>
       </c>
@@ -1158,7 +1159,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="25" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B25" s="1">
         <v>44269</v>
       </c>
@@ -1172,7 +1173,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="26" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B26" s="1">
         <v>44374</v>
       </c>
@@ -1186,7 +1187,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="27" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B27" s="1">
         <v>44498</v>
       </c>
@@ -1200,7 +1201,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="28" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B28" s="1">
         <v>44287</v>
       </c>
@@ -1214,7 +1215,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="29" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B29" s="1">
         <v>43844</v>
       </c>
@@ -1228,7 +1229,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="30" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B30" s="1">
         <v>43859</v>
       </c>
@@ -1242,7 +1243,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="31" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B31" s="1">
         <v>44037</v>
       </c>
@@ -1256,7 +1257,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="32" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B32" s="1">
         <v>43968</v>
       </c>
@@ -1270,7 +1271,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="33" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B33" s="1">
         <v>44502</v>
       </c>
@@ -1284,7 +1285,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="34" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B34" s="1">
         <v>44317</v>
       </c>
@@ -1298,7 +1299,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="35" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B35" s="1">
         <v>43929</v>
       </c>
@@ -1312,7 +1313,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="36" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B36" s="1">
         <v>44062</v>
       </c>
@@ -1326,7 +1327,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="37" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B37" s="1">
         <v>44362</v>
       </c>
@@ -1340,7 +1341,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="38" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B38" s="1">
         <v>44358</v>
       </c>
@@ -1354,7 +1355,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="39" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B39" s="1">
         <v>44195</v>
       </c>
@@ -1368,7 +1369,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="40" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="40" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B40" s="1">
         <v>44063</v>
       </c>
@@ -1382,7 +1383,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="41" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="41" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B41" s="1">
         <v>44163</v>
       </c>
@@ -1396,7 +1397,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="42" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="42" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B42" s="1">
         <v>44033</v>
       </c>
@@ -1410,7 +1411,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="43" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="43" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B43" s="1">
         <v>44253</v>
       </c>
@@ -1424,7 +1425,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="44" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="44" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B44" s="1">
         <v>44031</v>
       </c>
@@ -1438,7 +1439,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="45" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="45" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B45" s="1">
         <v>44011</v>
       </c>
@@ -1452,7 +1453,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="46" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="46" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B46" s="1">
         <v>43860</v>
       </c>
@@ -1466,7 +1467,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="47" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="47" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B47" s="1">
         <v>44275</v>
       </c>
@@ -1480,7 +1481,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="48" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="48" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B48" s="1">
         <v>43888</v>
       </c>
@@ -1494,7 +1495,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="49" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="49" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B49" s="1">
         <v>44335</v>
       </c>
@@ -1508,7 +1509,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="50" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="50" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B50" s="1">
         <v>44110</v>
       </c>
@@ -1522,7 +1523,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="51" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="51" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B51" s="1">
         <v>44050</v>
       </c>
@@ -1536,7 +1537,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="52" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="52" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B52" s="1">
         <v>44025</v>
       </c>
@@ -1550,7 +1551,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="53" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="53" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B53" s="1">
         <v>43890</v>
       </c>
@@ -1564,7 +1565,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="54" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="54" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B54" s="1">
         <v>44021</v>
       </c>
@@ -1578,7 +1579,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="55" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="55" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B55" s="1">
         <v>44095</v>
       </c>
@@ -1592,7 +1593,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="56" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="56" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B56" s="1">
         <v>44272</v>
       </c>
@@ -1606,7 +1607,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="57" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="57" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B57" s="1">
         <v>44338</v>
       </c>
@@ -1620,7 +1621,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="58" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="58" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B58" s="1">
         <v>44265</v>
       </c>
@@ -1634,7 +1635,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="59" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="59" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B59" s="1">
         <v>44164</v>
       </c>
@@ -1648,7 +1649,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="60" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="60" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B60" s="1">
         <v>43842</v>
       </c>
@@ -1662,7 +1663,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="61" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="61" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B61" s="1">
         <v>43951</v>
       </c>
@@ -1676,7 +1677,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="62" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="62" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B62" s="1">
         <v>44517</v>
       </c>
@@ -1690,7 +1691,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="63" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="63" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B63" s="1">
         <v>44022</v>
       </c>
@@ -1704,7 +1705,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="64" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="64" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B64" s="1">
         <v>44065</v>
       </c>
@@ -1718,7 +1719,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="65" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="65" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B65" s="1">
         <v>43857</v>
       </c>
@@ -1732,7 +1733,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="66" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="66" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B66" s="1">
         <v>44348</v>
       </c>
@@ -1746,7 +1747,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="67" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="67" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B67" s="1">
         <v>44220</v>
       </c>
@@ -1760,7 +1761,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="68" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="68" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B68" s="1">
         <v>43898</v>
       </c>
@@ -1774,7 +1775,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="69" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="69" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B69" s="1">
         <v>44102</v>
       </c>
@@ -1788,7 +1789,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="70" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="70" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B70" s="1">
         <v>43925</v>
       </c>
@@ -1802,7 +1803,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="71" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="71" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B71" s="1">
         <v>44230</v>
       </c>
@@ -1816,7 +1817,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="72" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="72" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B72" s="1">
         <v>44019</v>
       </c>
@@ -1830,7 +1831,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="73" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="73" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B73" s="1">
         <v>44394</v>
       </c>
@@ -1844,7 +1845,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="74" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="74" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B74" s="1">
         <v>43925</v>
       </c>
@@ -1858,7 +1859,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="75" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="75" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B75" s="1">
         <v>43988</v>
       </c>
@@ -1872,7 +1873,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="76" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="76" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B76" s="1">
         <v>44539</v>
       </c>
@@ -1886,7 +1887,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="77" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="77" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B77" s="1">
         <v>43971</v>
       </c>
@@ -1900,7 +1901,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="78" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="78" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B78" s="1">
         <v>44244</v>
       </c>
@@ -1914,7 +1915,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="79" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="79" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B79" s="1">
         <v>44030</v>
       </c>
@@ -1928,7 +1929,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="80" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="80" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B80" s="1">
         <v>44489</v>
       </c>
@@ -1942,7 +1943,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="81" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="81" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B81" s="1">
         <v>44056</v>
       </c>
@@ -1956,7 +1957,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="82" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="82" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B82" s="1">
         <v>44193</v>
       </c>
@@ -1970,7 +1971,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="83" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="83" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B83" s="1">
         <v>44413</v>
       </c>
@@ -1984,7 +1985,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="84" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="84" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B84" s="1">
         <v>43855</v>
       </c>
@@ -1998,7 +1999,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="85" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="85" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B85" s="1">
         <v>43874</v>
       </c>
@@ -2012,7 +2013,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="86" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="86" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B86" s="1">
         <v>43850</v>
       </c>
@@ -2026,7 +2027,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="87" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="87" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B87" s="1">
         <v>44452</v>
       </c>
@@ -2040,7 +2041,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="88" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="88" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B88" s="1">
         <v>44344</v>
       </c>
@@ -2054,7 +2055,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="89" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="89" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B89" s="1">
         <v>44554</v>
       </c>
@@ -2068,7 +2069,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="90" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="90" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B90" s="1">
         <v>43982</v>
       </c>
@@ -2082,7 +2083,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="91" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="91" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B91" s="1">
         <v>44234</v>
       </c>
@@ -2096,7 +2097,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="92" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="92" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B92" s="1">
         <v>44560</v>
       </c>
@@ -2110,7 +2111,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="93" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="93" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B93" s="1">
         <v>44108</v>
       </c>
@@ -2124,7 +2125,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="94" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="94" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B94" s="1">
         <v>44528</v>
       </c>
@@ -2138,7 +2139,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="95" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="95" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B95" s="1">
         <v>44304</v>
       </c>
@@ -2152,7 +2153,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="96" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="96" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B96" s="1">
         <v>43963</v>
       </c>
@@ -2166,7 +2167,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="97" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="97" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B97" s="1">
         <v>44249</v>
       </c>
@@ -2180,7 +2181,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="98" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="98" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B98" s="1">
         <v>44022</v>
       </c>
@@ -2194,7 +2195,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="99" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="99" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B99" s="1">
         <v>44009</v>
       </c>
@@ -2208,7 +2209,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="100" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="100" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B100" s="1">
         <v>44473</v>
       </c>
@@ -2222,7 +2223,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="101" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="101" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B101" s="1">
         <v>43931</v>
       </c>
@@ -2236,7 +2237,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="102" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="102" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B102" s="1">
         <v>44235</v>
       </c>
@@ -2250,7 +2251,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="103" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="103" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B103" s="1">
         <v>44358</v>
       </c>
@@ -2264,7 +2265,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="104" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="104" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B104" s="1">
         <v>44314</v>
       </c>
@@ -2278,7 +2279,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="105" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="105" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B105" s="1">
         <v>44469</v>
       </c>
@@ -2292,7 +2293,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="106" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="106" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B106" s="1">
         <v>44363</v>
       </c>
@@ -2306,7 +2307,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="107" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="107" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B107" s="1">
         <v>44065</v>
       </c>
@@ -2320,7 +2321,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="108" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="108" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B108" s="1">
         <v>43832</v>
       </c>
@@ -2334,7 +2335,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="109" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="109" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B109" s="1">
         <v>44558</v>
       </c>
@@ -2348,7 +2349,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="110" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="110" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B110" s="1">
         <v>44327</v>
       </c>
@@ -2362,7 +2363,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="111" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="111" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B111" s="1">
         <v>44258</v>
       </c>
@@ -2376,7 +2377,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="112" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="112" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B112" s="1">
         <v>44154</v>
       </c>
@@ -2390,7 +2391,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="113" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="113" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B113" s="1">
         <v>43936</v>
       </c>
@@ -2404,7 +2405,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="114" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="114" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B114" s="1">
         <v>43952</v>
       </c>
@@ -2418,7 +2419,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="115" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="115" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B115" s="1">
         <v>44295</v>
       </c>
@@ -2432,7 +2433,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="116" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="116" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B116" s="1">
         <v>43990</v>
       </c>
@@ -2446,7 +2447,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="117" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="117" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B117" s="1">
         <v>44481</v>
       </c>
@@ -2460,7 +2461,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="118" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="118" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B118" s="1">
         <v>44506</v>
       </c>
@@ -2474,7 +2475,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="119" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="119" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B119" s="1">
         <v>44371</v>
       </c>
@@ -2488,7 +2489,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="120" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="120" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B120" s="1">
         <v>44087</v>
       </c>
@@ -2502,7 +2503,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="121" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="121" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B121" s="1">
         <v>43989</v>
       </c>
@@ -2516,7 +2517,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="122" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="122" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B122" s="1">
         <v>43927</v>
       </c>
@@ -2530,7 +2531,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="123" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="123" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B123" s="1">
         <v>44433</v>
       </c>
@@ -2544,7 +2545,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="124" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="124" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B124" s="1">
         <v>44128</v>
       </c>
@@ -2558,7 +2559,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="125" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="125" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B125" s="1">
         <v>43879</v>
       </c>
@@ -2572,7 +2573,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="126" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="126" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B126" s="1">
         <v>44487</v>
       </c>
@@ -2586,7 +2587,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="127" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="127" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B127" s="1">
         <v>44208</v>
       </c>
@@ -2600,7 +2601,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="128" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="128" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B128" s="1">
         <v>44127</v>
       </c>
@@ -2614,7 +2615,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="129" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="129" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B129" s="1">
         <v>44200</v>
       </c>
@@ -2628,7 +2629,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="130" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="130" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B130" s="1">
         <v>44237</v>
       </c>
@@ -2642,7 +2643,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="131" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="131" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B131" s="1">
         <v>44341</v>
       </c>
@@ -2656,7 +2657,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="132" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="132" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B132" s="1">
         <v>44508</v>
       </c>
@@ -2670,7 +2671,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="133" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="133" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B133" s="1">
         <v>44424</v>
       </c>
@@ -2684,7 +2685,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="134" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="134" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B134" s="1">
         <v>44035</v>
       </c>
@@ -2698,7 +2699,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="135" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="135" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B135" s="1">
         <v>44317</v>
       </c>
@@ -2712,7 +2713,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="136" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="136" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B136" s="1">
         <v>43960</v>
       </c>
@@ -2726,7 +2727,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="137" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="137" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B137" s="1">
         <v>44030</v>
       </c>
@@ -2740,7 +2741,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="138" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="138" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B138" s="1">
         <v>44545</v>
       </c>
@@ -2754,7 +2755,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="139" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="139" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B139" s="1">
         <v>44437</v>
       </c>
@@ -2768,7 +2769,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="140" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="140" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B140" s="1">
         <v>44281</v>
       </c>
@@ -2782,7 +2783,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="141" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="141" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B141" s="1">
         <v>44418</v>
       </c>
@@ -2796,7 +2797,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="142" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="142" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B142" s="1">
         <v>44151</v>
       </c>
@@ -2810,7 +2811,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="143" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="143" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B143" s="1">
         <v>44026</v>
       </c>
@@ -2824,7 +2825,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="144" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="144" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B144" s="1">
         <v>44202</v>
       </c>
@@ -2838,7 +2839,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="145" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="145" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B145" s="1">
         <v>43982</v>
       </c>
@@ -2852,7 +2853,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="146" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="146" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B146" s="1">
         <v>44244</v>
       </c>
@@ -2866,7 +2867,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="147" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="147" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B147" s="1">
         <v>43946</v>
       </c>
@@ -2880,7 +2881,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="148" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="148" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B148" s="1">
         <v>44459</v>
       </c>
@@ -2894,7 +2895,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="149" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="149" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B149" s="1">
         <v>44419</v>
       </c>
@@ -2908,7 +2909,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="150" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="150" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B150" s="1">
         <v>44400</v>
       </c>
@@ -2922,7 +2923,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="151" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="151" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B151" s="1">
         <v>44080</v>
       </c>
@@ -2936,7 +2937,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="152" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="152" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B152" s="1">
         <v>44296</v>
       </c>
@@ -2950,7 +2951,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="153" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="153" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B153" s="1">
         <v>44472</v>
       </c>
@@ -2964,7 +2965,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="154" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="154" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B154" s="1">
         <v>44450</v>
       </c>
@@ -2978,7 +2979,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="155" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="155" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B155" s="1">
         <v>44037</v>
       </c>
@@ -2992,7 +2993,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="156" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="156" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B156" s="1">
         <v>44546</v>
       </c>
@@ -3006,7 +3007,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="157" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="157" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B157" s="1">
         <v>44224</v>
       </c>
@@ -3020,7 +3021,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="158" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="158" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B158" s="1">
         <v>44249</v>
       </c>
@@ -3034,7 +3035,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="159" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="159" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B159" s="1">
         <v>44143</v>
       </c>
@@ -3048,7 +3049,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="160" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="160" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B160" s="1">
         <v>43981</v>
       </c>
@@ -3062,7 +3063,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="161" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="161" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B161" s="1">
         <v>44254</v>
       </c>
@@ -3076,7 +3077,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="162" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="162" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B162" s="1">
         <v>43840</v>
       </c>
@@ -3090,7 +3091,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="163" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="163" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B163" s="1">
         <v>44460</v>
       </c>
@@ -3104,7 +3105,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="164" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="164" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B164" s="1">
         <v>44054</v>
       </c>
@@ -3118,7 +3119,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="165" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="165" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B165" s="1">
         <v>44429</v>
       </c>
@@ -3132,7 +3133,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="166" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="166" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B166" s="1">
         <v>43910</v>
       </c>
@@ -3146,7 +3147,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="167" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="167" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B167" s="1">
         <v>44172</v>
       </c>
@@ -3160,7 +3161,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="168" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="168" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B168" s="1">
         <v>44109</v>
       </c>
@@ -3174,7 +3175,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="169" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="169" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B169" s="1">
         <v>44259</v>
       </c>
@@ -3188,7 +3189,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="170" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="170" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B170" s="1">
         <v>44305</v>
       </c>
@@ -3202,7 +3203,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="171" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="171" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B171" s="1">
         <v>43937</v>
       </c>
@@ -3216,7 +3217,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="172" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="172" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B172" s="1">
         <v>44224</v>
       </c>
@@ -3230,7 +3231,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="173" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="173" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B173" s="1">
         <v>44077</v>
       </c>
@@ -3244,7 +3245,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="174" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="174" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B174" s="1">
         <v>43968</v>
       </c>
@@ -3258,7 +3259,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="175" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="175" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B175" s="1">
         <v>44259</v>
       </c>
@@ -3272,7 +3273,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="176" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="176" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B176" s="1">
         <v>44312</v>
       </c>
@@ -3286,7 +3287,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="177" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="177" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B177" s="1">
         <v>44171</v>
       </c>
@@ -3300,7 +3301,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="178" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="178" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B178" s="1">
         <v>44127</v>
       </c>
@@ -3314,7 +3315,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="179" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="179" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B179" s="1">
         <v>44345</v>
       </c>
@@ -3328,7 +3329,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="180" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="180" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B180" s="1">
         <v>44515</v>
       </c>
@@ -3342,7 +3343,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="181" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="181" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B181" s="1">
         <v>43837</v>
       </c>
@@ -3356,7 +3357,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="182" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="182" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B182" s="1">
         <v>43877</v>
       </c>
@@ -3370,7 +3371,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="183" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="183" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B183" s="1">
         <v>44158</v>
       </c>
@@ -3384,7 +3385,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="184" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="184" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B184" s="1">
         <v>44351</v>
       </c>
@@ -3398,7 +3399,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="185" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="185" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B185" s="1">
         <v>44376</v>
       </c>
@@ -3412,7 +3413,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="186" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="186" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B186" s="1">
         <v>43913</v>
       </c>
@@ -3426,7 +3427,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="187" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="187" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B187" s="1">
         <v>44270</v>
       </c>
@@ -3440,7 +3441,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="188" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="188" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B188" s="1">
         <v>44005</v>
       </c>
@@ -3454,7 +3455,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="189" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="189" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B189" s="1">
         <v>44154</v>
       </c>
@@ -3468,7 +3469,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="190" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="190" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B190" s="1">
         <v>43938</v>
       </c>
@@ -3482,7 +3483,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="191" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="191" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B191" s="1">
         <v>44048</v>
       </c>
@@ -3496,7 +3497,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="192" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="192" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B192" s="1">
         <v>44299</v>
       </c>
@@ -3510,7 +3511,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="193" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="193" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B193" s="1">
         <v>44243</v>
       </c>
@@ -3524,7 +3525,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="194" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="194" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B194" s="1">
         <v>44096</v>
       </c>
@@ -3538,7 +3539,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="195" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="195" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B195" s="1">
         <v>44051</v>
       </c>
@@ -3552,7 +3553,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="196" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="196" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B196" s="1">
         <v>44200</v>
       </c>
@@ -3566,7 +3567,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="197" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="197" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B197" s="1">
         <v>43835</v>
       </c>
@@ -3580,7 +3581,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="198" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="198" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B198" s="1">
         <v>44135</v>
       </c>
@@ -3594,7 +3595,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="199" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="199" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B199" s="1">
         <v>43842</v>
       </c>
@@ -3608,7 +3609,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="200" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="200" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B200" s="1">
         <v>44509</v>
       </c>
@@ -3622,7 +3623,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="201" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="201" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B201" s="1">
         <v>44257</v>
       </c>
@@ -3636,7 +3637,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="202" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="202" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B202" s="1">
         <v>44396</v>
       </c>
@@ -3650,7 +3651,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="203" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="203" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B203" s="1">
         <v>44184</v>
       </c>
@@ -3664,7 +3665,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="204" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="204" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B204" s="1">
         <v>43990</v>
       </c>
@@ -3678,7 +3679,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="205" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="205" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B205" s="1">
         <v>44239</v>
       </c>
@@ -3692,7 +3693,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="206" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="206" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B206" s="1">
         <v>44120</v>
       </c>
@@ -3706,7 +3707,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="207" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="207" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B207" s="1">
         <v>44339</v>
       </c>
@@ -3720,7 +3721,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="208" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="208" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B208" s="1">
         <v>44481</v>
       </c>
@@ -3734,7 +3735,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="209" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="209" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B209" s="1">
         <v>43842</v>
       </c>
@@ -3748,7 +3749,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="210" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="210" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B210" s="1">
         <v>43929</v>
       </c>
@@ -3762,7 +3763,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="211" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="211" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B211" s="1">
         <v>44307</v>
       </c>
@@ -3776,7 +3777,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="212" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="212" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B212" s="1">
         <v>44392</v>
       </c>
@@ -3790,7 +3791,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="213" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="213" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B213" s="1">
         <v>43850</v>
       </c>
@@ -3804,7 +3805,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="214" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="214" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B214" s="1">
         <v>44229</v>
       </c>
@@ -3818,7 +3819,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="215" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="215" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B215" s="1">
         <v>44087</v>
       </c>
@@ -3832,7 +3833,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="216" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="216" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B216" s="1">
         <v>44235</v>
       </c>
@@ -3846,7 +3847,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="217" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="217" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B217" s="1">
         <v>44497</v>
       </c>
@@ -3860,7 +3861,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="218" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="218" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B218" s="1">
         <v>44105</v>
       </c>
@@ -3874,7 +3875,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="219" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="219" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B219" s="1">
         <v>44348</v>
       </c>
@@ -3888,7 +3889,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="220" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="220" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B220" s="1">
         <v>44529</v>
       </c>
@@ -3902,7 +3903,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="221" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="221" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B221" s="1">
         <v>44074</v>
       </c>
@@ -3916,7 +3917,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="222" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="222" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B222" s="1">
         <v>44120</v>
       </c>
@@ -3930,7 +3931,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="223" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="223" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B223" s="1">
         <v>44385</v>
       </c>
@@ -3944,7 +3945,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="224" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="224" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B224" s="1">
         <v>44421</v>
       </c>
@@ -3958,7 +3959,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="225" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="225" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B225" s="1">
         <v>43991</v>
       </c>
@@ -3972,7 +3973,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="226" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="226" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B226" s="1">
         <v>44441</v>
       </c>
@@ -3986,7 +3987,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="227" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="227" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B227" s="1">
         <v>44125</v>
       </c>
@@ -4000,7 +4001,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="228" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="228" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B228" s="1">
         <v>44470</v>
       </c>
@@ -4014,7 +4015,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="229" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="229" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B229" s="1">
         <v>44525</v>
       </c>
@@ -4028,7 +4029,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="230" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="230" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B230" s="1">
         <v>44432</v>
       </c>
@@ -4042,7 +4043,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="231" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="231" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B231" s="1">
         <v>44205</v>
       </c>
@@ -4056,7 +4057,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="232" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="232" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B232" s="1">
         <v>44025</v>
       </c>
@@ -4070,7 +4071,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="233" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="233" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B233" s="1">
         <v>44013</v>
       </c>
@@ -4084,7 +4085,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="234" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="234" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B234" s="1">
         <v>44161</v>
       </c>
@@ -4098,7 +4099,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="235" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="235" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B235" s="1">
         <v>43915</v>
       </c>
@@ -4112,7 +4113,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="236" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="236" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B236" s="1">
         <v>44469</v>
       </c>
@@ -4126,7 +4127,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="237" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="237" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B237" s="1">
         <v>44057</v>
       </c>
@@ -4140,7 +4141,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="238" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="238" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B238" s="1">
         <v>44291</v>
       </c>
@@ -4154,7 +4155,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="239" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="239" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B239" s="1">
         <v>43875</v>
       </c>
@@ -4168,7 +4169,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="240" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="240" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B240" s="1">
         <v>43905</v>
       </c>
@@ -4182,7 +4183,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="241" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="241" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B241" s="1">
         <v>44296</v>
       </c>
@@ -4196,7 +4197,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="242" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="242" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B242" s="1">
         <v>44077</v>
       </c>
@@ -4210,7 +4211,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="243" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="243" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B243" s="1">
         <v>44126</v>
       </c>
@@ -4224,7 +4225,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="244" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="244" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B244" s="1">
         <v>44245</v>
       </c>
@@ -4238,7 +4239,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="245" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="245" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B245" s="1">
         <v>44049</v>
       </c>
@@ -4252,7 +4253,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="246" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="246" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B246" s="1">
         <v>44205</v>
       </c>
@@ -4266,7 +4267,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="247" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="247" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B247" s="1">
         <v>44321</v>
       </c>
@@ -4280,7 +4281,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="248" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="248" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B248" s="1">
         <v>44036</v>
       </c>
@@ -4294,7 +4295,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="249" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="249" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B249" s="1">
         <v>44177</v>
       </c>
@@ -4308,7 +4309,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="250" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="250" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B250" s="1">
         <v>44145</v>
       </c>
@@ -4322,7 +4323,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="251" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="251" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B251" s="1">
         <v>44114</v>
       </c>
@@ -4336,7 +4337,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="252" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="252" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B252" s="1">
         <v>44381</v>
       </c>
@@ -4350,7 +4351,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="253" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="253" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B253" s="1">
         <v>44468</v>
       </c>
@@ -4364,7 +4365,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="254" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="254" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B254" s="1">
         <v>44227</v>
       </c>
@@ -4378,7 +4379,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="255" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="255" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B255" s="1">
         <v>43953</v>
       </c>
@@ -4392,7 +4393,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="256" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="256" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B256" s="1">
         <v>44442</v>
       </c>
@@ -4406,7 +4407,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="257" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="257" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B257" s="1">
         <v>44183</v>
       </c>
@@ -4420,7 +4421,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="258" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="258" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B258" s="1">
         <v>44390</v>
       </c>
@@ -4434,7 +4435,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="259" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="259" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B259" s="1">
         <v>44163</v>
       </c>
@@ -4448,7 +4449,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="260" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="260" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B260" s="1">
         <v>44263</v>
       </c>
@@ -4462,7 +4463,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="261" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="261" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B261" s="1">
         <v>44499</v>
       </c>
@@ -4476,7 +4477,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="262" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="262" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B262" s="1">
         <v>43965</v>
       </c>
@@ -4490,7 +4491,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="263" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="263" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B263" s="1">
         <v>43858</v>
       </c>
@@ -4504,7 +4505,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="264" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="264" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B264" s="1">
         <v>44500</v>
       </c>
@@ -4518,7 +4519,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="265" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="265" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B265" s="1">
         <v>44213</v>
       </c>
@@ -4532,7 +4533,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="266" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="266" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B266" s="1">
         <v>44273</v>
       </c>
@@ -4546,7 +4547,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="267" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="267" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B267" s="1">
         <v>44371</v>
       </c>
@@ -4560,7 +4561,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="268" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="268" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B268" s="1">
         <v>43852</v>
       </c>
@@ -4574,7 +4575,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="269" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="269" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B269" s="1">
         <v>43846</v>
       </c>
@@ -4588,7 +4589,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="270" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="270" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B270" s="1">
         <v>44360</v>
       </c>
@@ -4602,7 +4603,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="271" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="271" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B271" s="1">
         <v>44032</v>
       </c>
@@ -4616,7 +4617,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="272" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="272" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B272" s="1">
         <v>44130</v>
       </c>
@@ -4630,7 +4631,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="273" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="273" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B273" s="1">
         <v>43855</v>
       </c>
@@ -4644,7 +4645,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="274" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="274" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B274" s="1">
         <v>44352</v>
       </c>
@@ -4658,7 +4659,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="275" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="275" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B275" s="1">
         <v>43943</v>
       </c>
@@ -4672,7 +4673,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="276" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="276" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B276" s="1">
         <v>43922</v>
       </c>
@@ -4686,7 +4687,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="277" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="277" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B277" s="1">
         <v>44542</v>
       </c>
@@ -4700,7 +4701,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="278" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="278" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B278" s="1">
         <v>44398</v>
       </c>
@@ -4714,7 +4715,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="279" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="279" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B279" s="1">
         <v>44110</v>
       </c>
@@ -4728,7 +4729,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="280" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="280" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B280" s="1">
         <v>43931</v>
       </c>
@@ -4742,7 +4743,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="281" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="281" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B281" s="1">
         <v>44317</v>
       </c>
@@ -4756,7 +4757,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="282" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="282" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B282" s="1">
         <v>44431</v>
       </c>
@@ -4770,7 +4771,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="283" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="283" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B283" s="1">
         <v>44160</v>
       </c>
@@ -4784,7 +4785,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="284" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="284" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B284" s="1">
         <v>44359</v>
       </c>
@@ -4798,7 +4799,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="285" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="285" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B285" s="1">
         <v>43844</v>
       </c>
@@ -4812,7 +4813,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="286" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="286" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B286" s="1">
         <v>44003</v>
       </c>
@@ -4826,7 +4827,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="287" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="287" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B287" s="1">
         <v>44510</v>
       </c>
@@ -4840,7 +4841,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="288" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="288" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B288" s="1">
         <v>44176</v>
       </c>
@@ -4854,7 +4855,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="289" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="289" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B289" s="1">
         <v>44523</v>
       </c>
@@ -4868,7 +4869,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="290" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="290" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B290" s="1">
         <v>44297</v>
       </c>
@@ -4882,7 +4883,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="291" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="291" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B291" s="1">
         <v>43863</v>
       </c>
@@ -4896,7 +4897,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="292" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="292" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B292" s="1">
         <v>44021</v>
       </c>
@@ -4910,7 +4911,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="293" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="293" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B293" s="1">
         <v>44130</v>
       </c>
@@ -4924,7 +4925,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="294" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="294" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B294" s="1">
         <v>43957</v>
       </c>
@@ -4938,7 +4939,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="295" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="295" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B295" s="1">
         <v>43982</v>
       </c>
@@ -4952,7 +4953,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="296" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="296" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B296" s="1">
         <v>44172</v>
       </c>
@@ -4966,7 +4967,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="297" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="297" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B297" s="1">
         <v>44509</v>
       </c>
@@ -4980,7 +4981,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="298" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="298" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B298" s="1">
         <v>43911</v>
       </c>
@@ -4994,7 +4995,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="299" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="299" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B299" s="1">
         <v>43970</v>
       </c>
@@ -5008,7 +5009,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="300" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="300" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B300" s="1">
         <v>44472</v>
       </c>
@@ -5022,7 +5023,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="301" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="301" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B301" s="1">
         <v>44189</v>
       </c>
@@ -5036,7 +5037,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="302" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="302" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B302" s="1">
         <v>43920</v>
       </c>
@@ -5050,7 +5051,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="303" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="303" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B303" s="1">
         <v>43854</v>
       </c>
@@ -5064,7 +5065,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="304" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="304" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B304" s="1">
         <v>43922</v>
       </c>
@@ -5078,7 +5079,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="305" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="305" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B305" s="1">
         <v>44197</v>
       </c>
@@ -5092,7 +5093,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="306" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="306" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B306" s="1">
         <v>43912</v>
       </c>
@@ -5106,7 +5107,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="307" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="307" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B307" s="1">
         <v>43891</v>
       </c>
@@ -5120,7 +5121,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="308" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="308" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B308" s="1">
         <v>44063</v>
       </c>
@@ -5134,7 +5135,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="309" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="309" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B309" s="1">
         <v>44172</v>
       </c>
@@ -5148,7 +5149,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="310" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="310" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B310" s="1">
         <v>44131</v>
       </c>
@@ -5162,7 +5163,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="311" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="311" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B311" s="1">
         <v>44204</v>
       </c>
@@ -5176,7 +5177,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="312" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="312" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B312" s="1">
         <v>44319</v>
       </c>
@@ -5190,7 +5191,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="313" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="313" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B313" s="1">
         <v>44501</v>
       </c>
@@ -5204,7 +5205,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="314" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="314" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B314" s="1">
         <v>43899</v>
       </c>
@@ -5218,7 +5219,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="315" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="315" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B315" s="1">
         <v>44278</v>
       </c>
@@ -5232,7 +5233,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="316" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="316" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B316" s="1">
         <v>43956</v>
       </c>
@@ -5246,7 +5247,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="317" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="317" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B317" s="1">
         <v>43852</v>
       </c>
@@ -5260,7 +5261,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="318" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="318" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B318" s="1">
         <v>44393</v>
       </c>
@@ -5274,7 +5275,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="319" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="319" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B319" s="1">
         <v>44507</v>
       </c>
@@ -5288,7 +5289,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="320" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="320" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B320" s="1">
         <v>44519</v>
       </c>
@@ -5302,7 +5303,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="321" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="321" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B321" s="1">
         <v>44350</v>
       </c>
@@ -5316,7 +5317,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="322" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="322" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B322" s="1">
         <v>44178</v>
       </c>
@@ -5330,7 +5331,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="323" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="323" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B323" s="1">
         <v>44045</v>
       </c>
@@ -5344,7 +5345,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="324" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="324" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B324" s="1">
         <v>44290</v>
       </c>
@@ -5358,7 +5359,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="325" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="325" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B325" s="1">
         <v>44514</v>
       </c>
@@ -5372,7 +5373,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="326" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="326" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B326" s="1">
         <v>44252</v>
       </c>
@@ -5386,7 +5387,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="327" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="327" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B327" s="1">
         <v>44043</v>
       </c>
@@ -5400,7 +5401,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="328" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="328" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B328" s="1">
         <v>43973</v>
       </c>
@@ -5414,7 +5415,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="329" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="329" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B329" s="1">
         <v>43833</v>
       </c>
@@ -5428,7 +5429,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="330" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="330" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B330" s="1">
         <v>43887</v>
       </c>
@@ -5442,7 +5443,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="331" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="331" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B331" s="1">
         <v>44355</v>
       </c>
@@ -5456,7 +5457,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="332" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="332" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B332" s="1">
         <v>44435</v>
       </c>
@@ -5470,7 +5471,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="333" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="333" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B333" s="1">
         <v>44389</v>
       </c>
@@ -5484,7 +5485,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="334" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="334" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B334" s="1">
         <v>44423</v>
       </c>
@@ -5498,7 +5499,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="335" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="335" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B335" s="1">
         <v>44251</v>
       </c>
@@ -5512,7 +5513,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="336" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="336" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B336" s="1">
         <v>44419</v>
       </c>
@@ -5526,7 +5527,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="337" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="337" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B337" s="1">
         <v>44176</v>
       </c>
@@ -5540,7 +5541,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="338" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="338" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B338" s="1">
         <v>44052</v>
       </c>
@@ -5554,7 +5555,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="339" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="339" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B339" s="1">
         <v>44428</v>
       </c>
@@ -5568,7 +5569,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="340" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="340" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B340" s="1">
         <v>44531</v>
       </c>
@@ -5582,7 +5583,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="341" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="341" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B341" s="1">
         <v>44317</v>
       </c>
@@ -5596,7 +5597,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="342" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="342" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B342" s="1">
         <v>44408</v>
       </c>
@@ -5610,7 +5611,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="343" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="343" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B343" s="1">
         <v>43886</v>
       </c>
@@ -5624,7 +5625,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="344" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="344" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B344" s="1">
         <v>44157</v>
       </c>
@@ -5638,7 +5639,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="345" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="345" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B345" s="1">
         <v>44060</v>
       </c>
@@ -5652,7 +5653,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="346" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="346" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B346" s="1">
         <v>44082</v>
       </c>
@@ -5666,7 +5667,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="347" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="347" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B347" s="1">
         <v>44354</v>
       </c>
@@ -5680,7 +5681,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="348" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="348" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B348" s="1">
         <v>43867</v>
       </c>
@@ -5694,7 +5695,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="349" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="349" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B349" s="1">
         <v>44215</v>
       </c>
@@ -5708,7 +5709,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="350" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="350" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B350" s="1">
         <v>44450</v>
       </c>
@@ -5722,7 +5723,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="351" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="351" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B351" s="1">
         <v>43978</v>
       </c>
@@ -5736,7 +5737,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="352" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="352" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B352" s="1">
         <v>44460</v>
       </c>
@@ -5750,7 +5751,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="353" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="353" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B353" s="1">
         <v>44233</v>
       </c>
@@ -5764,7 +5765,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="354" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="354" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B354" s="1">
         <v>44424</v>
       </c>
@@ -5778,7 +5779,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="355" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="355" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B355" s="1">
         <v>43974</v>
       </c>
@@ -5792,7 +5793,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="356" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="356" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B356" s="1">
         <v>44253</v>
       </c>
@@ -5806,7 +5807,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="357" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="357" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B357" s="1">
         <v>44426</v>
       </c>
@@ -5820,7 +5821,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="358" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="358" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B358" s="1">
         <v>44257</v>
       </c>
@@ -5834,7 +5835,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="359" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="359" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B359" s="1">
         <v>44381</v>
       </c>
@@ -5848,7 +5849,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="360" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="360" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B360" s="1">
         <v>44548</v>
       </c>
@@ -5862,7 +5863,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="361" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="361" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B361" s="1">
         <v>44368</v>
       </c>
@@ -5876,7 +5877,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="362" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="362" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B362" s="1">
         <v>44476</v>
       </c>
@@ -5890,7 +5891,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="363" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="363" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B363" s="1">
         <v>44404</v>
       </c>
@@ -5904,7 +5905,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="364" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="364" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B364" s="1">
         <v>44030</v>
       </c>
@@ -5918,7 +5919,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="365" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="365" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B365" s="1">
         <v>44147</v>
       </c>
@@ -5932,7 +5933,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="366" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="366" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B366" s="1">
         <v>44011</v>
       </c>
@@ -5946,7 +5947,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="367" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="367" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B367" s="1">
         <v>44127</v>
       </c>
@@ -5960,7 +5961,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="368" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="368" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B368" s="1">
         <v>44514</v>
       </c>
@@ -5974,7 +5975,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="369" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="369" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B369" s="1">
         <v>44531</v>
       </c>
@@ -5988,7 +5989,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="370" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="370" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B370" s="1">
         <v>43831</v>
       </c>
@@ -6002,7 +6003,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="371" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="371" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B371" s="1">
         <v>44548</v>
       </c>
@@ -6016,7 +6017,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="372" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="372" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B372" s="1">
         <v>43883</v>
       </c>
@@ -6030,7 +6031,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="373" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="373" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B373" s="1">
         <v>44165</v>
       </c>
@@ -6044,7 +6045,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="374" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="374" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B374" s="1">
         <v>44521</v>
       </c>
@@ -6058,7 +6059,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="375" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="375" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B375" s="1">
         <v>44093</v>
       </c>
@@ -6072,7 +6073,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="376" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="376" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B376" s="1">
         <v>44348</v>
       </c>
@@ -6086,7 +6087,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="377" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="377" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B377" s="1">
         <v>44248</v>
       </c>
@@ -6100,7 +6101,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="378" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="378" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B378" s="1">
         <v>44443</v>
       </c>
@@ -6114,7 +6115,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="379" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="379" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B379" s="1">
         <v>44109</v>
       </c>
@@ -6128,7 +6129,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="380" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="380" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B380" s="1">
         <v>43849</v>
       </c>
@@ -6142,7 +6143,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="381" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="381" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B381" s="1">
         <v>44355</v>
       </c>
@@ -6156,7 +6157,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="382" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="382" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B382" s="1">
         <v>44165</v>
       </c>
@@ -6170,7 +6171,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="383" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="383" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B383" s="1">
         <v>43879</v>
       </c>
@@ -6184,7 +6185,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="384" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="384" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B384" s="1">
         <v>43950</v>
       </c>
@@ -6198,7 +6199,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="385" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="385" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B385" s="1">
         <v>44259</v>
       </c>
@@ -6212,7 +6213,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="386" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="386" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B386" s="1">
         <v>44561</v>
       </c>
@@ -6226,7 +6227,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="387" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="387" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B387" s="1">
         <v>44007</v>
       </c>
@@ -6240,7 +6241,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="388" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="388" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B388" s="1">
         <v>44116</v>
       </c>
@@ -6254,7 +6255,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="389" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="389" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B389" s="1">
         <v>43889</v>
       </c>
@@ -6268,7 +6269,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="390" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="390" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B390" s="1">
         <v>43880</v>
       </c>
@@ -6282,7 +6283,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="391" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="391" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B391" s="1">
         <v>44089</v>
       </c>
@@ -6296,7 +6297,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="392" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="392" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B392" s="1">
         <v>44269</v>
       </c>
@@ -6310,7 +6311,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="393" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="393" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B393" s="1">
         <v>44250</v>
       </c>
@@ -6324,7 +6325,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="394" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="394" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B394" s="1">
         <v>44353</v>
       </c>
@@ -6338,7 +6339,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="395" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="395" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B395" s="1">
         <v>44492</v>
       </c>
@@ -6352,7 +6353,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="396" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="396" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B396" s="1">
         <v>44333</v>
       </c>
@@ -6366,7 +6367,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="397" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="397" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B397" s="1">
         <v>43870</v>
       </c>
@@ -6380,7 +6381,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="398" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="398" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B398" s="1">
         <v>44128</v>
       </c>
@@ -6394,7 +6395,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="399" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="399" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B399" s="1">
         <v>44382</v>
       </c>
@@ -6408,7 +6409,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="400" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="400" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B400" s="1">
         <v>44504</v>
       </c>
@@ -6422,7 +6423,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="401" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="401" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B401" s="1">
         <v>44404</v>
       </c>
@@ -6436,7 +6437,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="402" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="402" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B402" s="1">
         <v>44407</v>
       </c>
@@ -6450,7 +6451,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="403" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="403" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B403" s="1">
         <v>43942</v>
       </c>
@@ -6464,7 +6465,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="404" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="404" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B404" s="1">
         <v>44046</v>
       </c>
@@ -6478,7 +6479,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="405" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="405" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B405" s="1">
         <v>44095</v>
       </c>
@@ -6492,7 +6493,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="406" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="406" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B406" s="1">
         <v>44371</v>
       </c>
@@ -6506,7 +6507,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="407" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="407" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B407" s="1">
         <v>43908</v>
       </c>
@@ -6520,7 +6521,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="408" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="408" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B408" s="1">
         <v>44187</v>
       </c>
@@ -6534,7 +6535,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="409" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="409" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B409" s="1">
         <v>43952</v>
       </c>
@@ -6548,7 +6549,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="410" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="410" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B410" s="1">
         <v>44470</v>
       </c>
@@ -6562,7 +6563,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="411" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="411" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B411" s="1">
         <v>44502</v>
       </c>
@@ -6576,7 +6577,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="412" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="412" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B412" s="1">
         <v>44346</v>
       </c>
@@ -6590,7 +6591,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="413" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="413" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B413" s="1">
         <v>43930</v>
       </c>
@@ -6604,7 +6605,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="414" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="414" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B414" s="1">
         <v>44275</v>
       </c>
@@ -6618,7 +6619,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="415" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="415" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B415" s="1">
         <v>44414</v>
       </c>
@@ -6632,7 +6633,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="416" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="416" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B416" s="1">
         <v>44499</v>
       </c>
@@ -6646,7 +6647,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="417" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="417" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B417" s="1">
         <v>43979</v>
       </c>
@@ -6660,7 +6661,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="418" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="418" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B418" s="1">
         <v>44177</v>
       </c>
@@ -6674,7 +6675,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="419" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="419" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B419" s="1">
         <v>44396</v>
       </c>
@@ -6688,7 +6689,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="420" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="420" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B420" s="1">
         <v>44084</v>
       </c>
@@ -6702,7 +6703,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="421" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="421" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B421" s="1">
         <v>43864</v>
       </c>
@@ -6716,7 +6717,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="422" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="422" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B422" s="1">
         <v>44255</v>
       </c>
@@ -6730,7 +6731,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="423" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="423" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B423" s="1">
         <v>43971</v>
       </c>
@@ -6744,7 +6745,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="424" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="424" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B424" s="1">
         <v>44122</v>
       </c>
@@ -6758,7 +6759,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="425" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="425" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B425" s="1">
         <v>43943</v>
       </c>
@@ -6772,7 +6773,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="426" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="426" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B426" s="1">
         <v>44192</v>
       </c>
@@ -6786,7 +6787,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="427" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="427" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B427" s="1">
         <v>44464</v>
       </c>
@@ -6800,7 +6801,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="428" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="428" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B428" s="1">
         <v>44105</v>
       </c>
@@ -6814,7 +6815,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="429" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="429" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B429" s="1">
         <v>44200</v>
       </c>
@@ -6828,7 +6829,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="430" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="430" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B430" s="1">
         <v>43983</v>
       </c>
@@ -6842,7 +6843,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="431" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="431" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B431" s="1">
         <v>44310</v>
       </c>
@@ -6856,7 +6857,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="432" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="432" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B432" s="1">
         <v>44334</v>
       </c>
@@ -6870,7 +6871,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="433" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="433" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B433" s="1">
         <v>44355</v>
       </c>
@@ -6884,7 +6885,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="434" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="434" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B434" s="1">
         <v>43861</v>
       </c>
@@ -6898,7 +6899,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="435" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="435" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B435" s="1">
         <v>43832</v>
       </c>
@@ -6912,7 +6913,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="436" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="436" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B436" s="1">
         <v>44057</v>
       </c>
@@ -6926,7 +6927,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="437" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="437" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B437" s="1">
         <v>44073</v>
       </c>
@@ -6940,7 +6941,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="438" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="438" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B438" s="1">
         <v>44192</v>
       </c>
@@ -6954,7 +6955,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="439" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="439" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B439" s="1">
         <v>44171</v>
       </c>
@@ -6968,7 +6969,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="440" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="440" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B440" s="1">
         <v>44491</v>
       </c>
@@ -6982,7 +6983,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="441" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="441" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B441" s="1">
         <v>44106</v>
       </c>
@@ -6996,7 +6997,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="442" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="442" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B442" s="1">
         <v>44317</v>
       </c>
@@ -7010,7 +7011,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="443" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="443" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B443" s="1">
         <v>44477</v>
       </c>
@@ -7024,7 +7025,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="444" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="444" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B444" s="1">
         <v>43942</v>
       </c>
@@ -7038,7 +7039,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="445" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="445" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B445" s="1">
         <v>44109</v>
       </c>
@@ -7052,7 +7053,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="446" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="446" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B446" s="1">
         <v>44096</v>
       </c>
@@ -7066,7 +7067,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="447" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="447" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B447" s="1">
         <v>44422</v>
       </c>
@@ -7080,7 +7081,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="448" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="448" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B448" s="1">
         <v>43904</v>
       </c>
@@ -7094,7 +7095,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="449" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="449" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B449" s="1">
         <v>44516</v>
       </c>
@@ -7108,7 +7109,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="450" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="450" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B450" s="1">
         <v>44091</v>
       </c>
@@ -7122,7 +7123,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="451" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="451" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B451" s="1">
         <v>44269</v>
       </c>
@@ -7136,7 +7137,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="452" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="452" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B452" s="1">
         <v>43993</v>
       </c>
@@ -7150,7 +7151,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="453" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="453" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B453" s="1">
         <v>43857</v>
       </c>
@@ -7164,7 +7165,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="454" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="454" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B454" s="1">
         <v>44317</v>
       </c>
@@ -7178,7 +7179,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="455" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="455" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B455" s="1">
         <v>44001</v>
       </c>
@@ -7192,7 +7193,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="456" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="456" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B456" s="1">
         <v>44013</v>
       </c>
@@ -7206,7 +7207,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="457" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="457" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B457" s="1">
         <v>44102</v>
       </c>
@@ -7220,7 +7221,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="458" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="458" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B458" s="1">
         <v>44387</v>
       </c>
@@ -7234,7 +7235,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="459" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="459" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B459" s="1">
         <v>44360</v>
       </c>
@@ -7248,7 +7249,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="460" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="460" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B460" s="1">
         <v>44230</v>
       </c>
@@ -7262,7 +7263,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="461" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="461" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B461" s="1">
         <v>43858</v>
       </c>
@@ -7276,7 +7277,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="462" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="462" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B462" s="1">
         <v>44233</v>
       </c>
@@ -7290,7 +7291,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="463" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="463" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B463" s="1">
         <v>43948</v>
       </c>
@@ -7304,7 +7305,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="464" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="464" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B464" s="1">
         <v>44089</v>
       </c>
@@ -7318,7 +7319,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="465" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="465" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B465" s="1">
         <v>43928</v>
       </c>
@@ -7332,7 +7333,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="466" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="466" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B466" s="1">
         <v>44556</v>
       </c>
@@ -7346,7 +7347,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="467" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="467" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B467" s="1">
         <v>44188</v>
       </c>
@@ -7360,7 +7361,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="468" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="468" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B468" s="1">
         <v>43884</v>
       </c>
@@ -7374,7 +7375,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="469" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="469" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B469" s="1">
         <v>44555</v>
       </c>
@@ -7388,7 +7389,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="470" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="470" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B470" s="1">
         <v>44393</v>
       </c>
@@ -7402,7 +7403,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="471" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="471" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B471" s="1">
         <v>44094</v>
       </c>
@@ -7416,7 +7417,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="472" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="472" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B472" s="1">
         <v>44253</v>
       </c>
@@ -7430,7 +7431,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="473" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="473" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B473" s="1">
         <v>44364</v>
       </c>
@@ -7444,7 +7445,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="474" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="474" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B474" s="1">
         <v>44005</v>
       </c>
@@ -7458,7 +7459,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="475" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="475" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B475" s="1">
         <v>43982</v>
       </c>
@@ -7472,7 +7473,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="476" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="476" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B476" s="1">
         <v>43877</v>
       </c>
@@ -7486,7 +7487,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="477" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="477" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B477" s="1">
         <v>44336</v>
       </c>
@@ -7500,7 +7501,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="478" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="478" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B478" s="1">
         <v>43881</v>
       </c>
@@ -7514,7 +7515,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="479" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="479" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B479" s="1">
         <v>44117</v>
       </c>
@@ -7528,7 +7529,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="480" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="480" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B480" s="1">
         <v>44170</v>
       </c>
@@ -7542,7 +7543,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="481" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="481" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B481" s="1">
         <v>44260</v>
       </c>
@@ -7556,7 +7557,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="482" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="482" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B482" s="1">
         <v>43970</v>
       </c>
@@ -7570,7 +7571,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="483" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="483" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B483" s="1">
         <v>44290</v>
       </c>
@@ -7584,7 +7585,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="484" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="484" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B484" s="1">
         <v>44257</v>
       </c>
@@ -7598,7 +7599,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="485" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="485" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B485" s="1">
         <v>44354</v>
       </c>
@@ -7612,7 +7613,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="486" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="486" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B486" s="1">
         <v>44068</v>
       </c>
@@ -7626,7 +7627,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="487" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="487" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B487" s="1">
         <v>44493</v>
       </c>
@@ -7640,7 +7641,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="488" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="488" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B488" s="1">
         <v>43852</v>
       </c>
@@ -7654,7 +7655,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="489" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="489" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B489" s="1">
         <v>43961</v>
       </c>
@@ -7668,7 +7669,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="490" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="490" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B490" s="1">
         <v>44340</v>
       </c>
@@ -7682,7 +7683,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="491" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="491" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B491" s="1">
         <v>43877</v>
       </c>
@@ -7696,7 +7697,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="492" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="492" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B492" s="1">
         <v>44374</v>
       </c>
@@ -7710,7 +7711,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="493" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="493" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B493" s="1">
         <v>44452</v>
       </c>
@@ -7724,7 +7725,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="494" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="494" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B494" s="1">
         <v>44184</v>
       </c>
@@ -7738,7 +7739,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="495" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="495" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B495" s="1">
         <v>43985</v>
       </c>
@@ -7752,7 +7753,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="496" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="496" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B496" s="1">
         <v>44527</v>
       </c>
@@ -7766,7 +7767,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="497" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="497" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B497" s="1">
         <v>44190</v>
       </c>
@@ -7780,7 +7781,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="498" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="498" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B498" s="1">
         <v>43904</v>
       </c>
@@ -7794,7 +7795,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="499" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="499" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B499" s="1">
         <v>44318</v>
       </c>
@@ -7808,7 +7809,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="500" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="500" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B500" s="1">
         <v>44111</v>
       </c>
@@ -7822,7 +7823,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="501" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="501" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B501" s="1">
         <v>43984</v>
       </c>
@@ -7836,7 +7837,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="502" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="502" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B502" s="1">
         <v>43852</v>
       </c>
@@ -7850,7 +7851,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="503" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="503" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B503" s="1">
         <v>44486</v>
       </c>
@@ -7864,7 +7865,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="504" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="504" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B504" s="1">
         <v>44338</v>
       </c>
@@ -7878,7 +7879,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="505" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="505" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B505" s="1">
         <v>44185</v>
       </c>
@@ -7892,7 +7893,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="506" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="506" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B506" s="1">
         <v>44477</v>
       </c>
@@ -7906,7 +7907,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="507" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="507" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B507" s="1">
         <v>43968</v>
       </c>
@@ -7920,7 +7921,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="508" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="508" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B508" s="1">
         <v>43925</v>
       </c>
@@ -7934,7 +7935,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="509" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="509" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B509" s="1">
         <v>43832</v>
       </c>
@@ -7948,7 +7949,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="510" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="510" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B510" s="1">
         <v>43913</v>
       </c>
@@ -7962,7 +7963,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="511" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="511" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B511" s="1">
         <v>44348</v>
       </c>
@@ -7976,7 +7977,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="512" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="512" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B512" s="1">
         <v>43965</v>
       </c>
@@ -7990,7 +7991,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="513" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="513" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B513" s="1">
         <v>44458</v>
       </c>
@@ -8004,7 +8005,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="514" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="514" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B514" s="1">
         <v>44210</v>
       </c>
@@ -8018,7 +8019,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="515" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="515" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B515" s="1">
         <v>44155</v>
       </c>
@@ -8032,7 +8033,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="516" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="516" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B516" s="1">
         <v>43947</v>
       </c>
@@ -8046,7 +8047,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="517" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="517" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B517" s="1">
         <v>44305</v>
       </c>
@@ -8060,7 +8061,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="518" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="518" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B518" s="1">
         <v>44213</v>
       </c>
@@ -8074,7 +8075,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="519" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="519" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B519" s="1">
         <v>44309</v>
       </c>
@@ -8088,7 +8089,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="520" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="520" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B520" s="1">
         <v>43890</v>
       </c>
@@ -8102,7 +8103,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="521" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="521" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B521" s="1">
         <v>44385</v>
       </c>
@@ -8116,7 +8117,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="522" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="522" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B522" s="1">
         <v>44383</v>
       </c>
@@ -8130,7 +8131,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="523" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="523" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B523" s="1">
         <v>44192</v>
       </c>
@@ -8144,7 +8145,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="524" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="524" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B524" s="1">
         <v>44410</v>
       </c>
@@ -8158,7 +8159,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="525" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="525" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B525" s="1">
         <v>44524</v>
       </c>
@@ -8172,7 +8173,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="526" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="526" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B526" s="1">
         <v>44119</v>
       </c>
@@ -8186,7 +8187,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="527" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="527" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B527" s="1">
         <v>44480</v>
       </c>
@@ -8200,7 +8201,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="528" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="528" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B528" s="1">
         <v>44309</v>
       </c>
@@ -8214,7 +8215,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="529" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="529" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B529" s="1">
         <v>44272</v>
       </c>
@@ -8228,7 +8229,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="530" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="530" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B530" s="1">
         <v>44339</v>
       </c>
@@ -8242,7 +8243,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="531" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="531" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B531" s="1">
         <v>44347</v>
       </c>
@@ -8256,7 +8257,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="532" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="532" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B532" s="1">
         <v>44088</v>
       </c>
@@ -8270,7 +8271,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="533" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="533" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B533" s="1">
         <v>44106</v>
       </c>
@@ -8284,7 +8285,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="534" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="534" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B534" s="1">
         <v>43928</v>
       </c>
@@ -8298,7 +8299,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="535" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="535" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B535" s="1">
         <v>44559</v>
       </c>
@@ -8312,7 +8313,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="536" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="536" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B536" s="1">
         <v>44170</v>
       </c>
@@ -8326,7 +8327,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="537" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="537" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B537" s="1">
         <v>43971</v>
       </c>
@@ -8340,7 +8341,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="538" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="538" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B538" s="1">
         <v>44535</v>
       </c>
@@ -8354,7 +8355,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="539" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="539" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B539" s="1">
         <v>44411</v>
       </c>
@@ -8368,7 +8369,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="540" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="540" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B540" s="1">
         <v>44287</v>
       </c>
@@ -8382,7 +8383,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="541" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="541" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B541" s="1">
         <v>44488</v>
       </c>
@@ -8396,7 +8397,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="542" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="542" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B542" s="1">
         <v>43966</v>
       </c>
@@ -8410,7 +8411,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="543" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="543" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B543" s="1">
         <v>44298</v>
       </c>
@@ -8424,7 +8425,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="544" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="544" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B544" s="1">
         <v>44220</v>
       </c>
@@ -8438,7 +8439,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="545" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="545" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B545" s="1">
         <v>44452</v>
       </c>
@@ -8452,7 +8453,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="546" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="546" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B546" s="1">
         <v>44182</v>
       </c>
@@ -8466,7 +8467,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="547" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="547" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B547" s="1">
         <v>43998</v>
       </c>
@@ -8480,7 +8481,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="548" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="548" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B548" s="1">
         <v>44208</v>
       </c>
@@ -8494,7 +8495,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="549" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="549" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B549" s="1">
         <v>43847</v>
       </c>
@@ -8508,7 +8509,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="550" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="550" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B550" s="1">
         <v>44495</v>
       </c>
@@ -8522,7 +8523,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="551" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="551" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B551" s="1">
         <v>44184</v>
       </c>
@@ -8536,7 +8537,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="552" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="552" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B552" s="1">
         <v>44068</v>
       </c>
@@ -8550,7 +8551,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="553" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="553" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B553" s="1">
         <v>44366</v>
       </c>
@@ -8564,7 +8565,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="554" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="554" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B554" s="1">
         <v>43902</v>
       </c>
@@ -8578,7 +8579,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="555" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="555" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B555" s="1">
         <v>44364</v>
       </c>
@@ -8592,7 +8593,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="556" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="556" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B556" s="1">
         <v>43862</v>
       </c>
@@ -8606,7 +8607,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="557" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="557" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B557" s="1">
         <v>44044</v>
       </c>
@@ -8620,7 +8621,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="558" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="558" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B558" s="1">
         <v>44293</v>
       </c>
@@ -8634,7 +8635,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="559" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="559" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B559" s="1">
         <v>44525</v>
       </c>
@@ -8648,7 +8649,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="560" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="560" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B560" s="1">
         <v>43870</v>
       </c>
@@ -8662,7 +8663,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="561" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="561" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B561" s="1">
         <v>44125</v>
       </c>
@@ -8676,7 +8677,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="562" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="562" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B562" s="1">
         <v>44301</v>
       </c>
@@ -8690,7 +8691,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="563" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="563" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B563" s="1">
         <v>43998</v>
       </c>
@@ -8704,7 +8705,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="564" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="564" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B564" s="1">
         <v>44327</v>
       </c>
@@ -8718,7 +8719,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="565" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="565" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B565" s="1">
         <v>44205</v>
       </c>
@@ -8732,7 +8733,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="566" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="566" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B566" s="1">
         <v>44312</v>
       </c>
@@ -8746,7 +8747,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="567" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="567" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B567" s="1">
         <v>44351</v>
       </c>
@@ -8760,7 +8761,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="568" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="568" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B568" s="1">
         <v>44455</v>
       </c>
@@ -8774,7 +8775,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="569" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="569" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B569" s="1">
         <v>44067</v>
       </c>
@@ -8788,7 +8789,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="570" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="570" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B570" s="1">
         <v>44560</v>
       </c>
@@ -8802,7 +8803,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="571" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="571" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B571" s="1">
         <v>43990</v>
       </c>
@@ -8816,7 +8817,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="572" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="572" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B572" s="1">
         <v>43844</v>
       </c>
@@ -8830,7 +8831,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="573" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="573" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B573" s="1">
         <v>44560</v>
       </c>
@@ -8844,7 +8845,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="574" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="574" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B574" s="1">
         <v>44393</v>
       </c>
@@ -8858,7 +8859,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="575" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="575" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B575" s="1">
         <v>44134</v>
       </c>
@@ -8872,7 +8873,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="576" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="576" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B576" s="1">
         <v>44465</v>
       </c>
@@ -8886,7 +8887,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="577" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="577" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B577" s="1">
         <v>44243</v>
       </c>
@@ -8900,7 +8901,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="578" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="578" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B578" s="1">
         <v>44238</v>
       </c>
@@ -8914,7 +8915,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="579" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="579" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B579" s="1">
         <v>43963</v>
       </c>
@@ -8928,7 +8929,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="580" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="580" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B580" s="1">
         <v>43840</v>
       </c>
@@ -8942,7 +8943,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="581" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="581" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B581" s="1">
         <v>43909</v>
       </c>
@@ -8956,7 +8957,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="582" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="582" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B582" s="1">
         <v>44493</v>
       </c>
@@ -8970,7 +8971,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="583" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="583" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B583" s="1">
         <v>44156</v>
       </c>
@@ -8984,7 +8985,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="584" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="584" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B584" s="1">
         <v>44427</v>
       </c>
@@ -8998,7 +8999,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="585" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="585" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B585" s="1">
         <v>43892</v>
       </c>
@@ -9012,7 +9013,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="586" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="586" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B586" s="1">
         <v>44284</v>
       </c>
@@ -9026,7 +9027,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="587" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="587" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B587" s="1">
         <v>44273</v>
       </c>
@@ -9040,7 +9041,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="588" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="588" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B588" s="1">
         <v>44190</v>
       </c>
@@ -9054,7 +9055,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="589" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="589" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B589" s="1">
         <v>44018</v>
       </c>
@@ -9068,7 +9069,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="590" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="590" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B590" s="1">
         <v>44036</v>
       </c>
@@ -9082,7 +9083,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="591" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="591" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B591" s="1">
         <v>44350</v>
       </c>
@@ -9096,7 +9097,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="592" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="592" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B592" s="1">
         <v>43834</v>
       </c>
@@ -9110,7 +9111,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="593" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="593" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B593" s="1">
         <v>43963</v>
       </c>
@@ -9124,7 +9125,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="594" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="594" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B594" s="1">
         <v>44214</v>
       </c>
@@ -9138,7 +9139,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="595" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="595" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B595" s="1">
         <v>44196</v>
       </c>
@@ -9152,7 +9153,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="596" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="596" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B596" s="1">
         <v>44240</v>
       </c>
@@ -9166,7 +9167,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="597" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="597" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B597" s="1">
         <v>44506</v>
       </c>
@@ -9180,7 +9181,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="598" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="598" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B598" s="1">
         <v>43886</v>
       </c>
@@ -9194,7 +9195,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="599" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="599" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B599" s="1">
         <v>44370</v>
       </c>
@@ -9208,7 +9209,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="600" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="600" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B600" s="1">
         <v>44529</v>
       </c>
@@ -9222,7 +9223,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="601" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="601" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B601" s="1">
         <v>44201</v>
       </c>
@@ -9236,7 +9237,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="602" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="602" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B602" s="1">
         <v>43939</v>
       </c>
@@ -9250,7 +9251,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="603" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="603" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B603" s="1">
         <v>43971</v>
       </c>
@@ -9264,7 +9265,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="604" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="604" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B604" s="1">
         <v>44361</v>
       </c>
@@ -9278,7 +9279,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="605" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="605" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B605" s="1">
         <v>44017</v>
       </c>
@@ -9292,7 +9293,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="606" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="606" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B606" s="1">
         <v>44360</v>
       </c>
@@ -9306,7 +9307,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="607" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="607" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B607" s="1">
         <v>44386</v>
       </c>
@@ -9320,7 +9321,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="608" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="608" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B608" s="1">
         <v>44455</v>
       </c>
@@ -9334,7 +9335,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="609" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="609" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B609" s="1">
         <v>44385</v>
       </c>
@@ -9348,7 +9349,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="610" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="610" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B610" s="1">
         <v>43838</v>
       </c>
@@ -9362,7 +9363,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="611" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="611" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B611" s="1">
         <v>44063</v>
       </c>
@@ -9376,7 +9377,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="612" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="612" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B612" s="1">
         <v>44413</v>
       </c>
@@ -9390,7 +9391,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="613" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="613" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B613" s="1">
         <v>44366</v>
       </c>
@@ -9404,7 +9405,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="614" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="614" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B614" s="1">
         <v>43852</v>
       </c>
@@ -9418,7 +9419,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="615" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="615" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B615" s="1">
         <v>44561</v>
       </c>
@@ -9432,7 +9433,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="616" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="616" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B616" s="1">
         <v>44506</v>
       </c>
@@ -9446,7 +9447,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="617" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="617" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B617" s="1">
         <v>44213</v>
       </c>
@@ -9460,7 +9461,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="618" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="618" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B618" s="1">
         <v>44307</v>
       </c>
@@ -9474,7 +9475,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="619" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="619" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B619" s="1">
         <v>44187</v>
       </c>
@@ -9488,7 +9489,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="620" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="620" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B620" s="1">
         <v>43881</v>
       </c>
@@ -9502,7 +9503,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="621" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="621" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B621" s="1">
         <v>44430</v>
       </c>
@@ -9516,7 +9517,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="622" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="622" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B622" s="1">
         <v>43989</v>
       </c>
@@ -9530,7 +9531,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="623" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="623" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B623" s="1">
         <v>43978</v>
       </c>
@@ -9544,7 +9545,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="624" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="624" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B624" s="1">
         <v>43893</v>
       </c>
@@ -9558,7 +9559,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="625" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="625" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B625" s="1">
         <v>44507</v>
       </c>
@@ -9572,7 +9573,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="626" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="626" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B626" s="1">
         <v>44332</v>
       </c>
@@ -9586,7 +9587,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="627" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="627" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B627" s="1">
         <v>44221</v>
       </c>
@@ -9600,7 +9601,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="628" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="628" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B628" s="1">
         <v>44218</v>
       </c>
@@ -9614,7 +9615,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="629" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="629" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B629" s="1">
         <v>43896</v>
       </c>
@@ -9628,7 +9629,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="630" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="630" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B630" s="1">
         <v>44129</v>
       </c>
@@ -9642,7 +9643,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="631" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="631" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B631" s="1">
         <v>44009</v>
       </c>
@@ -9656,7 +9657,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="632" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="632" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B632" s="1">
         <v>44370</v>
       </c>
@@ -9670,7 +9671,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="633" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="633" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B633" s="1">
         <v>44559</v>
       </c>
@@ -9684,7 +9685,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="634" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="634" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B634" s="1">
         <v>44390</v>
       </c>
@@ -9698,7 +9699,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="635" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="635" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B635" s="1">
         <v>44369</v>
       </c>
@@ -9712,7 +9713,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="636" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="636" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B636" s="1">
         <v>44472</v>
       </c>
@@ -9726,7 +9727,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="637" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="637" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B637" s="1">
         <v>44454</v>
       </c>
@@ -9740,7 +9741,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="638" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="638" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B638" s="1">
         <v>44501</v>
       </c>
@@ -9754,7 +9755,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="639" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="639" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B639" s="1">
         <v>44412</v>
       </c>
@@ -9768,7 +9769,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="640" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="640" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B640" s="1">
         <v>44553</v>
       </c>
@@ -9782,7 +9783,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="641" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="641" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B641" s="1">
         <v>44289</v>
       </c>
@@ -9796,7 +9797,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="642" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="642" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B642" s="1">
         <v>44088</v>
       </c>
@@ -9810,7 +9811,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="643" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="643" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B643" s="1">
         <v>44228</v>
       </c>
@@ -9824,7 +9825,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="644" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="644" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B644" s="1">
         <v>44307</v>
       </c>
@@ -9838,7 +9839,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="645" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="645" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B645" s="1">
         <v>44475</v>
       </c>
@@ -9852,7 +9853,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="646" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="646" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B646" s="1">
         <v>43910</v>
       </c>
@@ -9866,7 +9867,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="647" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="647" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B647" s="1">
         <v>44314</v>
       </c>
@@ -9880,7 +9881,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="648" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="648" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B648" s="1">
         <v>44267</v>
       </c>
@@ -9894,7 +9895,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="649" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="649" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B649" s="1">
         <v>44380</v>
       </c>
@@ -9908,7 +9909,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="650" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="650" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B650" s="1">
         <v>44032</v>
       </c>
@@ -9922,7 +9923,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="651" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="651" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B651" s="1">
         <v>44195</v>
       </c>
@@ -9936,7 +9937,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="652" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="652" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B652" s="1">
         <v>44125</v>
       </c>
@@ -9950,7 +9951,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="653" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="653" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B653" s="1">
         <v>44043</v>
       </c>
@@ -9964,7 +9965,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="654" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="654" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B654" s="1">
         <v>43888</v>
       </c>
@@ -9978,7 +9979,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="655" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="655" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B655" s="1">
         <v>44384</v>
       </c>
@@ -9992,7 +9993,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="656" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="656" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B656" s="1">
         <v>44417</v>
       </c>
@@ -10006,7 +10007,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="657" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="657" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B657" s="1">
         <v>43987</v>
       </c>
@@ -10020,7 +10021,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="658" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="658" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B658" s="1">
         <v>44558</v>
       </c>
@@ -10034,7 +10035,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="659" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="659" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B659" s="1">
         <v>44380</v>
       </c>
@@ -10048,7 +10049,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="660" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="660" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B660" s="1">
         <v>44282</v>
       </c>
@@ -10062,7 +10063,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="661" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="661" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B661" s="1">
         <v>43973</v>
       </c>
@@ -10076,7 +10077,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="662" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="662" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B662" s="1">
         <v>44518</v>
       </c>
@@ -10090,7 +10091,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="663" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="663" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B663" s="1">
         <v>43969</v>
       </c>
@@ -10104,7 +10105,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="664" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="664" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B664" s="1">
         <v>44096</v>
       </c>
@@ -10118,7 +10119,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="665" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="665" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B665" s="1">
         <v>43896</v>
       </c>
@@ -10132,7 +10133,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="666" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="666" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B666" s="1">
         <v>44013</v>
       </c>
@@ -10146,7 +10147,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="667" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="667" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B667" s="1">
         <v>44414</v>
       </c>
@@ -10160,7 +10161,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="668" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="668" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B668" s="1">
         <v>43847</v>
       </c>
@@ -10174,7 +10175,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="669" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="669" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B669" s="1">
         <v>43955</v>
       </c>
@@ -10188,7 +10189,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="670" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="670" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B670" s="1">
         <v>44298</v>
       </c>
@@ -10202,7 +10203,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="671" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="671" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B671" s="1">
         <v>44078</v>
       </c>
@@ -10216,7 +10217,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="672" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="672" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B672" s="1">
         <v>44189</v>
       </c>
@@ -10230,7 +10231,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="673" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="673" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B673" s="1">
         <v>44156</v>
       </c>
@@ -10244,7 +10245,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="674" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="674" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B674" s="1">
         <v>43996</v>
       </c>
@@ -10258,7 +10259,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="675" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="675" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B675" s="1">
         <v>43896</v>
       </c>
@@ -10272,7 +10273,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="676" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="676" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B676" s="1">
         <v>44065</v>
       </c>
@@ -10286,7 +10287,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="677" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="677" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B677" s="1">
         <v>44528</v>
       </c>
@@ -10300,7 +10301,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="678" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="678" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B678" s="1">
         <v>44238</v>
       </c>
@@ -10314,7 +10315,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="679" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="679" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B679" s="1">
         <v>43937</v>
       </c>
@@ -10328,7 +10329,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="680" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="680" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B680" s="1">
         <v>44158</v>
       </c>
@@ -10342,7 +10343,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="681" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="681" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B681" s="1">
         <v>44494</v>
       </c>
@@ -10356,7 +10357,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="682" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="682" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B682" s="1">
         <v>44242</v>
       </c>
@@ -10370,7 +10371,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="683" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="683" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B683" s="1">
         <v>44245</v>
       </c>
@@ -10384,7 +10385,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="684" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="684" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B684" s="1">
         <v>43954</v>
       </c>
@@ -10398,7 +10399,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="685" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="685" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B685" s="1">
         <v>44298</v>
       </c>
@@ -10412,7 +10413,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="686" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="686" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B686" s="1">
         <v>44421</v>
       </c>
@@ -10426,7 +10427,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="687" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="687" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B687" s="1">
         <v>43880</v>
       </c>
@@ -10440,7 +10441,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="688" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="688" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B688" s="1">
         <v>44210</v>
       </c>
@@ -10454,7 +10455,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="689" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="689" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B689" s="1">
         <v>44340</v>
       </c>
@@ -10468,7 +10469,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="690" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="690" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B690" s="1">
         <v>44455</v>
       </c>
@@ -10482,7 +10483,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="691" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="691" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B691" s="1">
         <v>44347</v>
       </c>
@@ -10496,7 +10497,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="692" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="692" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B692" s="1">
         <v>44529</v>
       </c>
@@ -10510,7 +10511,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="693" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="693" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B693" s="1">
         <v>44384</v>
       </c>
@@ -10524,7 +10525,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="694" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="694" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B694" s="1">
         <v>44324</v>
       </c>
@@ -10538,7 +10539,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="695" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="695" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B695" s="1">
         <v>44454</v>
       </c>
@@ -10552,7 +10553,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="696" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="696" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B696" s="1">
         <v>44462</v>
       </c>
@@ -10566,7 +10567,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="697" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="697" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B697" s="1">
         <v>43861</v>
       </c>
@@ -10580,7 +10581,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="698" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="698" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B698" s="1">
         <v>44460</v>
       </c>
@@ -10594,7 +10595,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="699" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="699" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B699" s="1">
         <v>44254</v>
       </c>
@@ -10608,7 +10609,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="700" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="700" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B700" s="1">
         <v>43988</v>
       </c>
@@ -10622,7 +10623,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="701" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="701" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B701" s="1">
         <v>44167</v>
       </c>
@@ -10636,7 +10637,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="702" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="702" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B702" s="1">
         <v>44482</v>
       </c>
@@ -10650,7 +10651,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="703" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="703" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B703" s="1">
         <v>44122</v>
       </c>
@@ -10664,7 +10665,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="704" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="704" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B704" s="1">
         <v>44557</v>
       </c>
@@ -10678,7 +10679,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="705" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="705" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B705" s="1">
         <v>44483</v>
       </c>
@@ -10692,7 +10693,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="706" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="706" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B706" s="1">
         <v>44438</v>
       </c>
@@ -10706,7 +10707,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="707" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="707" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B707" s="1">
         <v>43867</v>
       </c>
@@ -10720,7 +10721,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="708" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="708" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B708" s="1">
         <v>44277</v>
       </c>
@@ -10734,7 +10735,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="709" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="709" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B709" s="1">
         <v>44314</v>
       </c>
@@ -10748,7 +10749,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="710" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="710" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B710" s="1">
         <v>44028</v>
       </c>
@@ -10762,7 +10763,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="711" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="711" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B711" s="1">
         <v>44241</v>
       </c>
@@ -10776,7 +10777,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="712" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="712" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B712" s="1">
         <v>44373</v>
       </c>
@@ -10790,7 +10791,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="713" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="713" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B713" s="1">
         <v>43963</v>
       </c>
@@ -10804,7 +10805,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="714" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="714" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B714" s="1">
         <v>44419</v>
       </c>
@@ -10818,7 +10819,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="715" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="715" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B715" s="1">
         <v>44339</v>
       </c>
@@ -10832,7 +10833,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="716" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="716" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B716" s="1">
         <v>44226</v>
       </c>
@@ -10846,7 +10847,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="717" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="717" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B717" s="1">
         <v>44377</v>
       </c>
@@ -10860,7 +10861,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="718" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="718" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B718" s="1">
         <v>44401</v>
       </c>
@@ -10874,7 +10875,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="719" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="719" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B719" s="1">
         <v>43896</v>
       </c>
@@ -10888,7 +10889,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="720" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="720" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B720" s="1">
         <v>44423</v>
       </c>
@@ -10902,7 +10903,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="721" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="721" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B721" s="1">
         <v>43856</v>
       </c>
@@ -10916,7 +10917,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="722" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="722" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B722" s="1">
         <v>44286</v>
       </c>
@@ -10930,7 +10931,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="723" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="723" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B723" s="1">
         <v>43921</v>
       </c>
@@ -10944,7 +10945,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="724" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="724" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B724" s="1">
         <v>44240</v>
       </c>
@@ -10958,7 +10959,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="725" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="725" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B725" s="1">
         <v>44321</v>
       </c>
@@ -10972,7 +10973,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="726" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="726" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B726" s="1">
         <v>44387</v>
       </c>
@@ -10986,7 +10987,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="727" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="727" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B727" s="1">
         <v>43982</v>
       </c>
@@ -11000,7 +11001,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="728" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="728" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B728" s="1">
         <v>44016</v>
       </c>
@@ -11014,7 +11015,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="729" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="729" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B729" s="1">
         <v>44210</v>
       </c>
@@ -11028,7 +11029,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="730" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="730" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B730" s="1">
         <v>43847</v>
       </c>
@@ -11042,7 +11043,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="731" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="731" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B731" s="1">
         <v>44272</v>
       </c>
@@ -11056,7 +11057,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="732" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="732" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B732" s="1">
         <v>44292</v>
       </c>
@@ -11070,7 +11071,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="733" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="733" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B733" s="1">
         <v>43999</v>
       </c>
@@ -11084,7 +11085,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="734" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="734" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B734" s="1">
         <v>44320</v>
       </c>
@@ -11098,7 +11099,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="735" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="735" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B735" s="1">
         <v>44364</v>
       </c>
@@ -11112,7 +11113,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="736" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="736" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B736" s="1">
         <v>44203</v>
       </c>
@@ -11126,7 +11127,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="737" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="737" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B737" s="1">
         <v>44085</v>
       </c>
@@ -11140,7 +11141,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="738" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="738" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B738" s="1">
         <v>44439</v>
       </c>
@@ -11154,7 +11155,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="739" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="739" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B739" s="1">
         <v>44332</v>
       </c>
@@ -11168,7 +11169,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="740" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="740" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B740" s="1">
         <v>44259</v>
       </c>
@@ -11182,7 +11183,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="741" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="741" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B741" s="1">
         <v>44083</v>
       </c>
@@ -11196,7 +11197,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="742" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="742" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B742" s="1">
         <v>44135</v>
       </c>
@@ -11210,7 +11211,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="743" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="743" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B743" s="1">
         <v>43871</v>
       </c>
@@ -11224,7 +11225,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="744" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="744" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B744" s="1">
         <v>43925</v>
       </c>
@@ -11238,7 +11239,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="745" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="745" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B745" s="1">
         <v>43938</v>
       </c>
@@ -11252,7 +11253,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="746" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="746" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B746" s="1">
         <v>44556</v>
       </c>
@@ -11266,7 +11267,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="747" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="747" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B747" s="1">
         <v>43915</v>
       </c>
@@ -11280,7 +11281,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="748" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="748" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B748" s="1">
         <v>43962</v>
       </c>
@@ -11294,7 +11295,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="749" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="749" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B749" s="1">
         <v>44339</v>
       </c>
@@ -11308,7 +11309,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="750" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="750" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B750" s="1">
         <v>44431</v>
       </c>
@@ -11322,7 +11323,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="751" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="751" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B751" s="1">
         <v>44272</v>
       </c>
@@ -11336,7 +11337,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="752" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="752" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B752" s="1">
         <v>44162</v>
       </c>
@@ -11350,7 +11351,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="753" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="753" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B753" s="1">
         <v>43835</v>
       </c>
@@ -11364,7 +11365,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="754" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="754" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B754" s="1">
         <v>44100</v>
       </c>
@@ -11378,7 +11379,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="755" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="755" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B755" s="1">
         <v>43877</v>
       </c>
@@ -11392,7 +11393,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="756" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="756" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B756" s="1">
         <v>44060</v>
       </c>
@@ -11406,7 +11407,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="757" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="757" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B757" s="1">
         <v>44465</v>
       </c>
@@ -11420,7 +11421,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="758" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="758" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B758" s="1">
         <v>43974</v>
       </c>
@@ -11434,7 +11435,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="759" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="759" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B759" s="1">
         <v>44291</v>
       </c>
@@ -11448,7 +11449,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="760" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="760" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B760" s="1">
         <v>44157</v>
       </c>
@@ -11462,7 +11463,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="761" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="761" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B761" s="1">
         <v>43917</v>
       </c>
@@ -11476,7 +11477,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="762" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="762" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B762" s="1">
         <v>43940</v>
       </c>
@@ -11490,7 +11491,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="763" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="763" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B763" s="1">
         <v>44065</v>
       </c>
@@ -11504,7 +11505,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="764" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="764" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B764" s="1">
         <v>44197</v>
       </c>
@@ -11518,7 +11519,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="765" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="765" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B765" s="1">
         <v>43869</v>
       </c>
@@ -11532,7 +11533,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="766" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="766" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B766" s="1">
         <v>44077</v>
       </c>
@@ -11546,7 +11547,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="767" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="767" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B767" s="1">
         <v>43844</v>
       </c>
@@ -11560,7 +11561,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="768" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="768" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B768" s="1">
         <v>43979</v>
       </c>
@@ -11574,7 +11575,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="769" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="769" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B769" s="1">
         <v>43861</v>
       </c>
@@ -11588,7 +11589,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="770" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="770" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B770" s="1">
         <v>44256</v>
       </c>
@@ -11602,7 +11603,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="771" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="771" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B771" s="1">
         <v>44404</v>
       </c>
@@ -11616,7 +11617,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="772" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="772" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B772" s="1">
         <v>44177</v>
       </c>
@@ -11630,7 +11631,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="773" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="773" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B773" s="1">
         <v>44239</v>
       </c>
@@ -11644,7 +11645,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="774" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="774" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B774" s="1">
         <v>44537</v>
       </c>
@@ -11658,7 +11659,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="775" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="775" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B775" s="1">
         <v>44252</v>
       </c>
@@ -11672,7 +11673,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="776" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="776" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B776" s="1">
         <v>44525</v>
       </c>
@@ -11686,7 +11687,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="777" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="777" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B777" s="1">
         <v>44484</v>
       </c>
@@ -11700,7 +11701,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="778" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="778" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B778" s="1">
         <v>44227</v>
       </c>
@@ -11714,7 +11715,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="779" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="779" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B779" s="1">
         <v>43989</v>
       </c>
@@ -11728,7 +11729,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="780" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="780" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B780" s="1">
         <v>44316</v>
       </c>
@@ -11742,7 +11743,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="781" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="781" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B781" s="1">
         <v>44483</v>
       </c>
@@ -11756,7 +11757,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="782" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="782" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B782" s="1">
         <v>44160</v>
       </c>
@@ -11770,7 +11771,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="783" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="783" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B783" s="1">
         <v>44320</v>
       </c>
@@ -11784,7 +11785,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="784" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="784" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B784" s="1">
         <v>44026</v>
       </c>
@@ -11798,7 +11799,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="785" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="785" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B785" s="1">
         <v>43866</v>
       </c>
@@ -11812,7 +11813,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="786" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="786" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B786" s="1">
         <v>44138</v>
       </c>
@@ -11826,7 +11827,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="787" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="787" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B787" s="1">
         <v>44459</v>
       </c>
@@ -11840,7 +11841,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="788" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="788" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B788" s="1">
         <v>44325</v>
       </c>
@@ -11854,7 +11855,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="789" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="789" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B789" s="1">
         <v>44299</v>
       </c>
@@ -11868,7 +11869,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="790" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="790" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B790" s="1">
         <v>43865</v>
       </c>
@@ -11882,7 +11883,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="791" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="791" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B791" s="1">
         <v>43979</v>
       </c>
@@ -11896,7 +11897,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="792" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="792" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B792" s="1">
         <v>44220</v>
       </c>
@@ -11910,7 +11911,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="793" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="793" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B793" s="1">
         <v>43886</v>
       </c>
@@ -11924,7 +11925,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="794" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="794" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B794" s="1">
         <v>44102</v>
       </c>
@@ -11938,7 +11939,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="795" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="795" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B795" s="1">
         <v>44009</v>
       </c>
@@ -11952,7 +11953,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="796" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="796" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B796" s="1">
         <v>44519</v>
       </c>
@@ -11966,7 +11967,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="797" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="797" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B797" s="1">
         <v>44368</v>
       </c>
@@ -11980,7 +11981,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="798" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="798" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B798" s="1">
         <v>44413</v>
       </c>
@@ -11994,7 +11995,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="799" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="799" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B799" s="1">
         <v>43937</v>
       </c>
@@ -12008,7 +12009,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="800" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="800" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B800" s="1">
         <v>44363</v>
       </c>
@@ -12022,7 +12023,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="801" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="801" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B801" s="1">
         <v>43955</v>
       </c>
@@ -12036,7 +12037,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="802" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="802" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B802" s="1">
         <v>43977</v>
       </c>
@@ -12050,7 +12051,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="803" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="803" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B803" s="1">
         <v>44330</v>
       </c>
@@ -12064,7 +12065,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="804" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="804" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B804" s="1">
         <v>44070</v>
       </c>
@@ -12078,7 +12079,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="805" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="805" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B805" s="1">
         <v>44113</v>
       </c>
@@ -12092,7 +12093,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="806" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="806" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B806" s="1">
         <v>44228</v>
       </c>
@@ -12106,7 +12107,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="807" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="807" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B807" s="1">
         <v>44296</v>
       </c>
@@ -12120,7 +12121,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="808" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="808" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B808" s="1">
         <v>43938</v>
       </c>
@@ -12134,7 +12135,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="809" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="809" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B809" s="1">
         <v>44083</v>
       </c>
@@ -12148,7 +12149,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="810" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="810" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B810" s="1">
         <v>44198</v>
       </c>
@@ -12162,7 +12163,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="811" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="811" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B811" s="1">
         <v>43841</v>
       </c>
@@ -12176,7 +12177,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="812" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="812" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B812" s="1">
         <v>44079</v>
       </c>
@@ -12190,7 +12191,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="813" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="813" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B813" s="1">
         <v>44090</v>
       </c>
@@ -12204,7 +12205,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="814" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="814" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B814" s="1">
         <v>43984</v>
       </c>
@@ -12218,7 +12219,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="815" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="815" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B815" s="1">
         <v>43870</v>
       </c>
@@ -12232,7 +12233,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="816" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="816" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B816" s="1">
         <v>43869</v>
       </c>
@@ -12246,7 +12247,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="817" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="817" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B817" s="1">
         <v>43900</v>
       </c>
@@ -12260,7 +12261,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="818" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="818" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B818" s="1">
         <v>44484</v>
       </c>
@@ -12274,7 +12275,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="819" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="819" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B819" s="1">
         <v>44393</v>
       </c>
@@ -12288,7 +12289,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="820" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="820" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B820" s="1">
         <v>44307</v>
       </c>

--- a/AULA 01/BASE DE DADOS.xlsx
+++ b/AULA 01/BASE DE DADOS.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://asavbrm-my.sharepoint.com/personal/fcardosoo_edu_unisinos_br/Documents/TI/Git/Simplifica-Treinamentos-Excel-Power-BI/AULA 01/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="13_ncr:1_{735EDCB2-EB8A-4762-9BA3-762CEE6460A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{29859707-7E5F-4573-9303-0711E21426B4}"/>
+  <xr:revisionPtr revIDLastSave="10" documentId="13_ncr:1_{735EDCB2-EB8A-4762-9BA3-762CEE6460A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{ABCF3B82-F8B6-4291-9AED-39468013CECE}"/>
   <bookViews>
-    <workbookView xWindow="16905" yWindow="-16200" windowWidth="21495" windowHeight="15630" xr2:uid="{6B4BC58C-BB17-441D-8DA7-B71E92E3E950}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="2" xr2:uid="{6B4BC58C-BB17-441D-8DA7-B71E92E3E950}"/>
   </bookViews>
   <sheets>
     <sheet name="Médicos" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="869" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="873" uniqueCount="32">
   <si>
     <t>ID Médico</t>
   </si>
@@ -495,12 +495,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{280F6DF4-B826-4BC0-9F0E-448C7C367043}">
   <dimension ref="B2:F8"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J19" sqref="J19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="1" max="1" width="3" customWidth="1"/>
     <col min="2" max="2" width="9.28515625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12.5703125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="17.42578125" bestFit="1" customWidth="1"/>
@@ -527,9 +528,7 @@
       <c r="D3" t="s">
         <v>29</v>
       </c>
-      <c r="F3" s="2">
-        <v>2.2201388888888887</v>
-      </c>
+      <c r="F3" s="2"/>
     </row>
     <row r="4" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B4">
@@ -597,7 +596,7 @@
   <dimension ref="B2:E16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -823,10 +822,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D5C2A7CE-8963-4711-AEAC-20578B4669CA}">
-  <dimension ref="B2:E820"/>
+  <dimension ref="B2:E824"/>
   <sheetViews>
-    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView tabSelected="1" topLeftCell="A811" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="B825" sqref="B825"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12303,6 +12302,62 @@
         <v>23</v>
       </c>
     </row>
+    <row r="821" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B821" s="1">
+        <v>44563</v>
+      </c>
+      <c r="C821">
+        <v>1</v>
+      </c>
+      <c r="D821">
+        <v>1</v>
+      </c>
+      <c r="E821" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="822" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B822" s="1">
+        <v>44563</v>
+      </c>
+      <c r="C822">
+        <v>1</v>
+      </c>
+      <c r="D822">
+        <v>1</v>
+      </c>
+      <c r="E822" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="823" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B823" s="1">
+        <v>44563</v>
+      </c>
+      <c r="C823">
+        <v>1</v>
+      </c>
+      <c r="D823">
+        <v>1</v>
+      </c>
+      <c r="E823" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="824" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B824" s="1">
+        <v>44563</v>
+      </c>
+      <c r="C824">
+        <v>1</v>
+      </c>
+      <c r="D824">
+        <v>1</v>
+      </c>
+      <c r="E824" t="s">
+        <v>23</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="B2:E820" xr:uid="{D5C2A7CE-8963-4711-AEAC-20578B4669CA}"/>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
